--- a/SC0_SPREAD.xlsx
+++ b/SC0_SPREAD.xlsx
@@ -2579,7 +2579,7 @@
         <v>29.0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BV2" t="n">
         <v>1.0</v>
@@ -2806,7 +2806,7 @@
         <v>72.0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="BV3" t="n">
         <v>0.0</v>
@@ -4622,7 +4622,7 @@
         <v>27.0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="BV11" t="n">
         <v>0.0</v>
@@ -6665,7 +6665,7 @@
         <v>33.0</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BV20" t="n">
         <v>1.0</v>
@@ -7119,7 +7119,7 @@
         <v>0.0</v>
       </c>
       <c r="BU22" t="n">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
       <c r="BV22" t="n">
         <v>0.0</v>
@@ -8935,7 +8935,7 @@
         <v>20.0</v>
       </c>
       <c r="BU30" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BV30" t="n">
         <v>0.0</v>
@@ -9162,7 +9162,7 @@
         <v>45.0</v>
       </c>
       <c r="BU31" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="BV31" t="n">
         <v>0.0</v>
@@ -10297,7 +10297,7 @@
         <v>16.0</v>
       </c>
       <c r="BU36" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="BV36" t="n">
         <v>0.0</v>
@@ -13021,7 +13021,7 @@
         <v>76.0</v>
       </c>
       <c r="BU48" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="BV48" t="n">
         <v>0.0</v>
@@ -14156,7 +14156,7 @@
         <v>49.0</v>
       </c>
       <c r="BU53" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BV53" t="n">
         <v>0.0</v>
@@ -14837,7 +14837,7 @@
         <v>0.0</v>
       </c>
       <c r="BU56" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BV56" t="n">
         <v>0.0</v>
@@ -16880,7 +16880,7 @@
         <v>57.0</v>
       </c>
       <c r="BU65" t="n">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
       <c r="BV65" t="n">
         <v>0.0</v>
@@ -19150,7 +19150,7 @@
         <v>15.0</v>
       </c>
       <c r="BU75" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="BV75" t="n">
         <v>1.0</v>
@@ -20058,7 +20058,7 @@
         <v>0.0</v>
       </c>
       <c r="BU79" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BV79" t="n">
         <v>0.0</v>
@@ -20285,7 +20285,7 @@
         <v>0.0</v>
       </c>
       <c r="BU80" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="BV80" t="n">
         <v>0.0</v>
@@ -20739,7 +20739,7 @@
         <v>81.0</v>
       </c>
       <c r="BU82" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="BV82" t="n">
         <v>0.0</v>
@@ -24144,7 +24144,7 @@
         <v>0.0</v>
       </c>
       <c r="BU97" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BV97" t="n">
         <v>0.0</v>
@@ -24598,7 +24598,7 @@
         <v>0.0</v>
       </c>
       <c r="BU99" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="BV99" t="n">
         <v>0.0</v>
@@ -25733,7 +25733,7 @@
         <v>45.0</v>
       </c>
       <c r="BU104" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="BV104" t="n">
         <v>0.0</v>
@@ -26187,7 +26187,7 @@
         <v>67.0</v>
       </c>
       <c r="BU106" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BV106" t="n">
         <v>0.0</v>
@@ -26641,7 +26641,7 @@
         <v>64.0</v>
       </c>
       <c r="BU108" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="BV108" t="n">
         <v>0.0</v>
@@ -28230,7 +28230,7 @@
         <v>0.0</v>
       </c>
       <c r="BU115" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BV115" t="n">
         <v>2.0</v>
@@ -30500,7 +30500,7 @@
         <v>0.0</v>
       </c>
       <c r="BU125" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BV125" t="n">
         <v>0.0</v>
@@ -30954,7 +30954,7 @@
         <v>49.0</v>
       </c>
       <c r="BU127" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BV127" t="n">
         <v>0.0</v>
@@ -31862,7 +31862,7 @@
         <v>44.0</v>
       </c>
       <c r="BU131" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BV131" t="n">
         <v>2.0</v>
@@ -34359,7 +34359,7 @@
         <v>82.0</v>
       </c>
       <c r="BU142" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BV142" t="n">
         <v>0.0</v>
@@ -34586,7 +34586,7 @@
         <v>85.0</v>
       </c>
       <c r="BU143" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="BV143" t="n">
         <v>0.0</v>
@@ -36402,7 +36402,7 @@
         <v>21.0</v>
       </c>
       <c r="BU151" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BV151" t="n">
         <v>0.0</v>
@@ -37310,7 +37310,7 @@
         <v>0.0</v>
       </c>
       <c r="BU155" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BV155" t="n">
         <v>2.0</v>
@@ -37537,7 +37537,7 @@
         <v>24.0</v>
       </c>
       <c r="BU156" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="BV156" t="n">
         <v>1.0</v>
@@ -37764,7 +37764,7 @@
         <v>0.0</v>
       </c>
       <c r="BU157" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="BV157" t="n">
         <v>0.0</v>
@@ -39126,7 +39126,7 @@
         <v>60.0</v>
       </c>
       <c r="BU163" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="BV163" t="n">
         <v>1.0</v>
@@ -40488,7 +40488,7 @@
         <v>35.0</v>
       </c>
       <c r="BU169" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BV169" t="n">
         <v>0.0</v>
@@ -40715,7 +40715,7 @@
         <v>56.0</v>
       </c>
       <c r="BU170" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BV170" t="n">
         <v>1.0</v>
@@ -42077,7 +42077,7 @@
         <v>45.0</v>
       </c>
       <c r="BU176" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="BV176" t="n">
         <v>0.0</v>
@@ -42304,7 +42304,7 @@
         <v>24.0</v>
       </c>
       <c r="BU177" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="BV177" t="n">
         <v>0.0</v>
@@ -44347,7 +44347,7 @@
         <v>0.0</v>
       </c>
       <c r="BU186" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BV186" t="n">
         <v>0.0</v>
@@ -44574,7 +44574,7 @@
         <v>0.0</v>
       </c>
       <c r="BU187" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="BV187" t="n">
         <v>1.0</v>
@@ -45255,7 +45255,7 @@
         <v>0.0</v>
       </c>
       <c r="BU190" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BV190" t="n">
         <v>0.0</v>
@@ -45709,7 +45709,7 @@
         <v>20.0</v>
       </c>
       <c r="BU192" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BV192" t="n">
         <v>2.0</v>
@@ -46163,7 +46163,7 @@
         <v>25.0</v>
       </c>
       <c r="BU194" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BV194" t="n">
         <v>0.0</v>
@@ -47298,7 +47298,7 @@
         <v>0.0</v>
       </c>
       <c r="BU199" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="BV199" t="n">
         <v>0.0</v>
@@ -47525,7 +47525,7 @@
         <v>0.0</v>
       </c>
       <c r="BU200" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BV200" t="n">
         <v>0.0</v>
@@ -47752,7 +47752,7 @@
         <v>0.0</v>
       </c>
       <c r="BU201" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="BV201" t="n">
         <v>0.0</v>
@@ -47979,7 +47979,7 @@
         <v>0.0</v>
       </c>
       <c r="BU202" t="n">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="BV202" t="n">
         <v>1.0</v>
@@ -48206,7 +48206,7 @@
         <v>11.0</v>
       </c>
       <c r="BU203" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="BV203" t="n">
         <v>0.0</v>
@@ -48660,7 +48660,7 @@
         <v>96.0</v>
       </c>
       <c r="BU205" t="n">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
       <c r="BV205" t="n">
         <v>0.0</v>
@@ -49114,7 +49114,7 @@
         <v>18.0</v>
       </c>
       <c r="BU207" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="BV207" t="n">
         <v>1.0</v>
@@ -49568,7 +49568,7 @@
         <v>0.0</v>
       </c>
       <c r="BU209" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="BV209" t="n">
         <v>1.0</v>
@@ -49795,7 +49795,7 @@
         <v>0.0</v>
       </c>
       <c r="BU210" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="BV210" t="n">
         <v>0.0</v>
@@ -50022,7 +50022,7 @@
         <v>9.0</v>
       </c>
       <c r="BU211" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="BV211" t="n">
         <v>1.0</v>
@@ -50249,7 +50249,7 @@
         <v>0.0</v>
       </c>
       <c r="BU212" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BV212" t="n">
         <v>1.0</v>
@@ -50476,7 +50476,7 @@
         <v>48.0</v>
       </c>
       <c r="BU213" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="BV213" t="n">
         <v>0.0</v>
@@ -51157,7 +51157,7 @@
         <v>70.0</v>
       </c>
       <c r="BU216" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="BV216" t="n">
         <v>0.0</v>
@@ -51838,7 +51838,7 @@
         <v>0.0</v>
       </c>
       <c r="BU219" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BV219" t="n">
         <v>0.0</v>
@@ -53654,7 +53654,7 @@
         <v>65.0</v>
       </c>
       <c r="BU227" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="BV227" t="n">
         <v>0.0</v>
@@ -53881,7 +53881,7 @@
         <v>52.0</v>
       </c>
       <c r="BU228" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="BV228" t="n">
         <v>1.0</v>

--- a/SC0_SPREAD.xlsx
+++ b/SC0_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="233">
   <si>
     <t>Div</t>
   </si>
@@ -341,6 +341,24 @@
     <t>32</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>SC0</t>
   </si>
   <si>
@@ -416,6 +434,9 @@
     <t>1-2</t>
   </si>
   <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -425,15 +446,15 @@
     <t>3-1</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
     <t>3-3</t>
   </si>
   <si>
+    <t>0-6</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -515,6 +536,21 @@
     <t>1-3</t>
   </si>
   <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -617,6 +653,24 @@
     <t>2024-09-21-St Mirren-Hearts</t>
   </si>
   <si>
+    <t>2024-09-28-Dundee-Aberdeen</t>
+  </si>
+  <si>
+    <t>2024-09-28-Hearts-Ross County</t>
+  </si>
+  <si>
+    <t>2024-09-28-Kilmarnock-Dundee United</t>
+  </si>
+  <si>
+    <t>2024-09-28-Motherwell-St Mirren</t>
+  </si>
+  <si>
+    <t>2024-09-28-St Johnstone-Celtic</t>
+  </si>
+  <si>
+    <t>2024-09-29-Rangers-Hibernian</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -654,6 +708,9 @@
   </si>
   <si>
     <t>Dan McFarlane</t>
+  </si>
+  <si>
+    <t>Craig Napier</t>
   </si>
 </sst>
 </file>
@@ -947,16 +1004,16 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -965,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -974,7 +1031,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L2" t="n">
         <v>5.09</v>
@@ -986,10 +1043,10 @@
         <v>1.61</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q2" t="n">
         <v>17.0</v>
@@ -1037,16 +1094,16 @@
         <v>25.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AG2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AH2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ2" t="n">
         <v>4.0</v>
@@ -1055,10 +1112,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AM2" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN2" t="n">
         <v>0.0</v>
@@ -1183,16 +1240,16 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1201,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1210,7 +1267,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L3" t="n">
         <v>1.9</v>
@@ -1222,10 +1279,10 @@
         <v>3.92</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q3" t="n">
         <v>11.0</v>
@@ -1273,16 +1330,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AG3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AH3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ3" t="n">
         <v>2.0</v>
@@ -1291,10 +1348,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AM3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN3" t="n">
         <v>0.0</v>
@@ -1419,16 +1476,16 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1437,7 +1494,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I4" t="n">
         <v>2.0</v>
@@ -1446,7 +1503,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L4" t="n">
         <v>2.36</v>
@@ -1458,10 +1515,10 @@
         <v>2.98</v>
       </c>
       <c r="O4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q4" t="n">
         <v>9.0</v>
@@ -1509,16 +1566,16 @@
         <v>13.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AG4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ4" t="n">
         <v>2.0</v>
@@ -1527,10 +1584,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AM4" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN4" t="n">
         <v>4.0</v>
@@ -1655,16 +1712,16 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1673,7 +1730,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1682,7 +1739,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L5" t="n">
         <v>2.47</v>
@@ -1694,10 +1751,10 @@
         <v>2.92</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q5" t="n">
         <v>11.0</v>
@@ -1745,16 +1802,16 @@
         <v>9.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI5" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ5" t="n">
         <v>4.0</v>
@@ -1763,10 +1820,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AM5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN5" t="n">
         <v>3.0</v>
@@ -1891,16 +1948,16 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F6" t="n">
         <v>4.0</v>
@@ -1909,7 +1966,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I6" t="n">
         <v>2.0</v>
@@ -1918,7 +1975,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L6" t="n">
         <v>1.16</v>
@@ -1930,10 +1987,10 @@
         <v>14.35</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="n">
         <v>20.0</v>
@@ -1981,16 +2038,16 @@
         <v>19.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
         <v>2.0</v>
@@ -1999,10 +2056,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AM6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN6" t="n">
         <v>4.0</v>
@@ -2127,16 +2184,16 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45509.0</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2145,7 +2202,7 @@
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2154,7 +2211,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L7" t="n">
         <v>3.0</v>
@@ -2166,10 +2223,10 @@
         <v>2.4</v>
       </c>
       <c r="O7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q7" t="n">
         <v>18.0</v>
@@ -2217,16 +2274,16 @@
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AG7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ7" t="n">
         <v>3.0</v>
@@ -2235,10 +2292,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AM7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="n">
         <v>3.0</v>
@@ -2363,16 +2420,16 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2381,7 +2438,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I8" t="n">
         <v>2.0</v>
@@ -2390,7 +2447,7 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -2402,10 +2459,10 @@
         <v>11.19</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q8" t="n">
         <v>19.0</v>
@@ -2453,16 +2510,16 @@
         <v>17.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AG8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI8" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ8" t="n">
         <v>2.0</v>
@@ -2471,10 +2528,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AM8" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN8" t="n">
         <v>3.0</v>
@@ -2599,16 +2656,16 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -2617,7 +2674,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2626,7 +2683,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L9" t="n">
         <v>2.59</v>
@@ -2638,10 +2695,10 @@
         <v>2.75</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q9" t="n">
         <v>21.0</v>
@@ -2689,16 +2746,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AG9" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH9" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI9" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ9" t="n">
         <v>3.0</v>
@@ -2707,10 +2764,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AM9" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="n">
         <v>2.0</v>
@@ -2835,16 +2892,16 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2853,7 +2910,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
@@ -2862,7 +2919,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L10" t="n">
         <v>3.15</v>
@@ -2874,10 +2931,10 @@
         <v>2.18</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -2925,16 +2982,16 @@
         <v>20.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AG10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.0</v>
@@ -2943,10 +3000,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AM10" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN10" t="n">
         <v>4.0</v>
@@ -3071,16 +3128,16 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -3089,7 +3146,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3098,7 +3155,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L11" t="n">
         <v>8.12</v>
@@ -3110,10 +3167,10 @@
         <v>1.34</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q11" t="n">
         <v>4.0</v>
@@ -3161,16 +3218,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH11" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI11" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ11" t="n">
         <v>3.0</v>
@@ -3179,10 +3236,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AM11" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN11" t="n">
         <v>2.0</v>
@@ -3307,16 +3364,16 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -3325,7 +3382,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3334,7 +3391,7 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L12" t="n">
         <v>1.92</v>
@@ -3346,10 +3403,10 @@
         <v>4.16</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q12" t="n">
         <v>11.0</v>
@@ -3397,16 +3454,16 @@
         <v>29.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ12" t="n">
         <v>5.0</v>
@@ -3415,10 +3472,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AM12" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN12" t="n">
         <v>4.0</v>
@@ -3543,17 +3600,17 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
         <v>121</v>
       </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
       <c r="F13" t="n">
         <v>0.0</v>
       </c>
@@ -3561,7 +3618,7 @@
         <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3570,7 +3627,7 @@
         <v>2.0</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L13" t="n">
         <v>1.79</v>
@@ -3582,10 +3639,10 @@
         <v>4.72</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q13" t="n">
         <v>14.0</v>
@@ -3633,16 +3690,16 @@
         <v>28.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH13" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI13" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ13" t="n">
         <v>7.0</v>
@@ -3651,10 +3708,10 @@
         <v>1.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AM13" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN13" t="n">
         <v>3.0</v>
@@ -3779,16 +3836,16 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3797,7 +3854,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3806,7 +3863,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L14" t="n">
         <v>1.9</v>
@@ -3818,10 +3875,10 @@
         <v>4.08</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q14" t="n">
         <v>3.0</v>
@@ -3869,16 +3926,16 @@
         <v>25.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH14" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI14" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.0</v>
@@ -3887,10 +3944,10 @@
         <v>1.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AM14" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="n">
         <v>2.0</v>
@@ -4015,16 +4072,16 @@
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -4033,7 +4090,7 @@
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -4042,7 +4099,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
@@ -4054,10 +4111,10 @@
         <v>3.28</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q15" t="n">
         <v>13.0</v>
@@ -4105,16 +4162,16 @@
         <v>29.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH15" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI15" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.0</v>
@@ -4123,10 +4180,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AM15" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="n">
         <v>4.0</v>
@@ -4251,16 +4308,16 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F16" t="n">
         <v>6.0</v>
@@ -4269,7 +4326,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I16" t="n">
         <v>2.0</v>
@@ -4278,7 +4335,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -4290,10 +4347,10 @@
         <v>13.46</v>
       </c>
       <c r="O16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q16" t="n">
         <v>17.0</v>
@@ -4341,16 +4398,16 @@
         <v>22.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AG16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ16" t="n">
         <v>4.0</v>
@@ -4359,10 +4416,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN16" t="n">
         <v>6.0</v>
@@ -4487,16 +4544,16 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -4505,7 +4562,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4514,7 +4571,7 @@
         <v>2.0</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L17" t="n">
         <v>9.66</v>
@@ -4526,10 +4583,10 @@
         <v>1.27</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q17" t="n">
         <v>3.0</v>
@@ -4577,16 +4634,16 @@
         <v>19.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI17" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="n">
         <v>3.0</v>
@@ -4595,10 +4652,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="n">
         <v>3.0</v>
@@ -4723,16 +4780,16 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -4741,7 +4798,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -4750,7 +4807,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L18" t="n">
         <v>1.72</v>
@@ -4762,10 +4819,10 @@
         <v>4.83</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q18" t="n">
         <v>12.0</v>
@@ -4813,16 +4870,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH18" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI18" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4831,10 +4888,10 @@
         <v>1.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="n">
         <v>2.0</v>
@@ -4959,16 +5016,16 @@
         <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F19" t="n">
         <v>3.0</v>
@@ -4977,7 +5034,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4986,7 +5043,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L19" t="n">
         <v>2.82</v>
@@ -4998,10 +5055,10 @@
         <v>2.47</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q19" t="n">
         <v>14.0</v>
@@ -5049,16 +5106,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AG19" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH19" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI19" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ19" t="n">
         <v>5.0</v>
@@ -5067,10 +5124,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AN19" t="n">
         <v>4.0</v>
@@ -5195,16 +5252,16 @@
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -5213,7 +5270,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5222,7 +5279,7 @@
         <v>2.0</v>
       </c>
       <c r="K20" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L20" t="n">
         <v>2.19</v>
@@ -5234,10 +5291,10 @@
         <v>3.48</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q20" t="n">
         <v>14.0</v>
@@ -5285,16 +5342,16 @@
         <v>25.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AG20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.0</v>
@@ -5303,10 +5360,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AM20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
         <v>4.0</v>
@@ -5431,16 +5488,16 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -5449,7 +5506,7 @@
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5458,7 +5515,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L21" t="n">
         <v>3.01</v>
@@ -5470,10 +5527,10 @@
         <v>2.47</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q21" t="n">
         <v>13.0</v>
@@ -5521,16 +5578,16 @@
         <v>23.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AG21" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH21" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI21" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ21" t="n">
         <v>1.0</v>
@@ -5539,10 +5596,10 @@
         <v>1.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="n">
         <v>3.0</v>
@@ -5667,16 +5724,16 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -5685,7 +5742,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -5694,7 +5751,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L22" t="n">
         <v>3.7</v>
@@ -5706,10 +5763,10 @@
         <v>1.93</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q22" t="n">
         <v>8.0</v>
@@ -5757,16 +5814,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AG22" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AH22" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI22" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5775,10 +5832,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AM22" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="n">
         <v>1.0</v>
@@ -5903,16 +5960,16 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -5921,7 +5978,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
@@ -5930,7 +5987,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L23" t="n">
         <v>1.63</v>
@@ -5942,10 +5999,10 @@
         <v>4.82</v>
       </c>
       <c r="O23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q23" t="n">
         <v>14.0</v>
@@ -5993,16 +6050,16 @@
         <v>23.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AG23" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH23" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI23" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ23" t="n">
         <v>9.0</v>
@@ -6011,10 +6068,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AM23" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AN23" t="n">
         <v>3.0</v>
@@ -6139,16 +6196,16 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6157,7 +6214,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6166,7 +6223,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -6178,10 +6235,10 @@
         <v>3.84</v>
       </c>
       <c r="O24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6229,16 +6286,16 @@
         <v>21.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AG24" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AH24" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI24" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.0</v>
@@ -6247,10 +6304,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AM24" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6375,16 +6432,16 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6393,7 +6450,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6402,7 +6459,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L25" t="n">
         <v>2.83</v>
@@ -6414,10 +6471,10 @@
         <v>2.55</v>
       </c>
       <c r="O25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q25" t="n">
         <v>14.0</v>
@@ -6465,16 +6522,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH25" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI25" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ25" t="n">
         <v>5.0</v>
@@ -6483,10 +6540,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="n">
         <v>2.0</v>
@@ -6611,16 +6668,16 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -6629,7 +6686,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -6638,7 +6695,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L26" t="n">
         <v>1.68</v>
@@ -6650,10 +6707,10 @@
         <v>5.03</v>
       </c>
       <c r="O26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" t="s">
         <v>132</v>
-      </c>
-      <c r="P26" t="s">
-        <v>126</v>
       </c>
       <c r="Q26" t="n">
         <v>11.0</v>
@@ -6701,16 +6758,16 @@
         <v>30.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH26" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI26" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.0</v>
@@ -6719,10 +6776,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="AN26" t="n">
         <v>3.0</v>
@@ -6847,16 +6904,16 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -6865,7 +6922,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6874,7 +6931,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L27" t="n">
         <v>1.15</v>
@@ -6886,10 +6943,10 @@
         <v>13.77</v>
       </c>
       <c r="O27" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -6937,16 +6994,16 @@
         <v>20.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AG27" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH27" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI27" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ27" t="n">
         <v>2.0</v>
@@ -6955,10 +7012,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AM27" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="AN27" t="n">
         <v>2.0</v>
@@ -7083,16 +7140,16 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -7101,7 +7158,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7110,7 +7167,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L28" t="n">
         <v>1.64</v>
@@ -7122,10 +7179,10 @@
         <v>5.19</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q28" t="n">
         <v>17.0</v>
@@ -7173,16 +7230,16 @@
         <v>23.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AG28" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH28" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI28" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -7191,10 +7248,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AM28" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AN28" t="n">
         <v>2.0</v>
@@ -7319,16 +7376,16 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -7337,7 +7394,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
@@ -7346,7 +7403,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L29" t="n">
         <v>2.77</v>
@@ -7358,10 +7415,10 @@
         <v>2.42</v>
       </c>
       <c r="O29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="n">
         <v>9.0</v>
@@ -7409,16 +7466,16 @@
         <v>25.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG29" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH29" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI29" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ29" t="n">
         <v>3.0</v>
@@ -7427,10 +7484,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AM29" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="AN29" t="n">
         <v>2.0</v>
@@ -7555,16 +7612,16 @@
         <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7573,7 +7630,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7582,7 +7639,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L30" t="n">
         <v>2.25</v>
@@ -7594,10 +7651,10 @@
         <v>3.34</v>
       </c>
       <c r="O30" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7645,16 +7702,16 @@
         <v>24.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG30" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH30" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI30" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7663,10 +7720,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AM30" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="AN30" t="n">
         <v>4.0</v>
@@ -7791,16 +7848,16 @@
         <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7809,7 +7866,7 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7818,7 +7875,7 @@
         <v>1.0</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L31" t="n">
         <v>6.64</v>
@@ -7830,10 +7887,10 @@
         <v>1.43</v>
       </c>
       <c r="O31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q31" t="n">
         <v>5.0</v>
@@ -7881,16 +7938,16 @@
         <v>24.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AG31" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AH31" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AI31" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.0</v>
@@ -7899,10 +7956,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AM31" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AN31" t="n">
         <v>1.0</v>
@@ -8027,16 +8084,16 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -8045,7 +8102,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -8054,7 +8111,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L32" t="n">
         <v>2.09</v>
@@ -8066,10 +8123,10 @@
         <v>3.48</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q32" t="n">
         <v>14.0</v>
@@ -8117,16 +8174,16 @@
         <v>28.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AG32" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH32" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI32" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -8135,10 +8192,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="n">
         <v>6.0</v>
@@ -8263,16 +8320,16 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -8281,7 +8338,7 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -8290,7 +8347,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L33" t="n">
         <v>2.86</v>
@@ -8302,10 +8359,10 @@
         <v>2.49</v>
       </c>
       <c r="O33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -8353,16 +8410,16 @@
         <v>23.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG33" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AH33" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI33" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="AJ33" t="n">
         <v>6.0</v>
@@ -8371,10 +8428,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM33" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AN33" t="n">
         <v>3.0</v>
@@ -8492,6 +8549,1422 @@
       </c>
       <c r="BZ33" t="n">
         <v>102.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1288.0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="O35" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>2096.0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3680.0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>129</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O37" t="s">
+        <v>132</v>
+      </c>
+      <c r="P37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2925.0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>4950.0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O38" t="s">
+        <v>140</v>
+      </c>
+      <c r="P38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>5312.0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>148.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="O39" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>902.0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>78.0</v>
       </c>
     </row>
   </sheetData>

--- a/SC0_SPREAD.xlsx
+++ b/SC0_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="269">
   <si>
     <t>Div</t>
   </si>
@@ -359,6 +359,42 @@
     <t>38</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>SC0</t>
   </si>
   <si>
@@ -455,6 +491,12 @@
     <t>0-6</t>
   </si>
   <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -551,6 +593,24 @@
     <t>3-13</t>
   </si>
   <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>19-2</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -671,6 +731,42 @@
     <t>2024-09-29-Rangers-Hibernian</t>
   </si>
   <si>
+    <t>2024-10-05-Dundee-Kilmarnock</t>
+  </si>
+  <si>
+    <t>2024-10-05-Hibernian-Motherwell</t>
+  </si>
+  <si>
+    <t>2024-10-05-St Mirren-Dundee United</t>
+  </si>
+  <si>
+    <t>2024-10-06-Ross County-Celtic</t>
+  </si>
+  <si>
+    <t>2024-10-06-Aberdeen-Hearts</t>
+  </si>
+  <si>
+    <t>2024-10-06-Rangers-St Johnstone</t>
+  </si>
+  <si>
+    <t>2024-10-19-Celtic-Aberdeen</t>
+  </si>
+  <si>
+    <t>2024-10-19-Dundee United-Hibernian</t>
+  </si>
+  <si>
+    <t>2024-10-19-Hearts-St Mirren</t>
+  </si>
+  <si>
+    <t>2024-10-19-Motherwell-Dundee</t>
+  </si>
+  <si>
+    <t>2024-10-19-St Johnstone-Ross County</t>
+  </si>
+  <si>
+    <t>2024-10-20-Kilmarnock-Rangers</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -711,6 +807,18 @@
   </si>
   <si>
     <t>Craig Napier</t>
+  </si>
+  <si>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
+    <t>David Dickinson</t>
+  </si>
+  <si>
+    <t>Steven McLean</t>
   </si>
 </sst>
 </file>
@@ -1004,16 +1112,16 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1022,7 +1130,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1031,7 +1139,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L2" t="n">
         <v>5.09</v>
@@ -1043,10 +1151,10 @@
         <v>1.61</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Q2" t="n">
         <v>17.0</v>
@@ -1094,16 +1202,16 @@
         <v>25.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="AG2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AH2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ2" t="n">
         <v>4.0</v>
@@ -1112,10 +1220,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AM2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN2" t="n">
         <v>0.0</v>
@@ -1240,16 +1348,16 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1258,7 +1366,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1267,7 +1375,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L3" t="n">
         <v>1.9</v>
@@ -1279,10 +1387,10 @@
         <v>3.92</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Q3" t="n">
         <v>11.0</v>
@@ -1330,16 +1438,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="AG3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AH3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ3" t="n">
         <v>2.0</v>
@@ -1348,10 +1456,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AM3" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN3" t="n">
         <v>0.0</v>
@@ -1476,16 +1584,16 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1494,7 +1602,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I4" t="n">
         <v>2.0</v>
@@ -1503,7 +1611,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L4" t="n">
         <v>2.36</v>
@@ -1515,10 +1623,10 @@
         <v>2.98</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="n">
         <v>9.0</v>
@@ -1566,16 +1674,16 @@
         <v>13.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AG4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
         <v>2.0</v>
@@ -1584,10 +1692,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AM4" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN4" t="n">
         <v>4.0</v>
@@ -1712,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1730,7 +1838,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1739,7 +1847,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L5" t="n">
         <v>2.47</v>
@@ -1751,10 +1859,10 @@
         <v>2.92</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q5" t="n">
         <v>11.0</v>
@@ -1802,16 +1910,16 @@
         <v>9.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="AG5" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH5" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI5" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ5" t="n">
         <v>4.0</v>
@@ -1820,10 +1928,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AM5" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN5" t="n">
         <v>3.0</v>
@@ -1948,16 +2056,16 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F6" t="n">
         <v>4.0</v>
@@ -1966,7 +2074,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I6" t="n">
         <v>2.0</v>
@@ -1975,7 +2083,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L6" t="n">
         <v>1.16</v>
@@ -1987,10 +2095,10 @@
         <v>14.35</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Q6" t="n">
         <v>20.0</v>
@@ -2038,16 +2146,16 @@
         <v>19.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AG6" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH6" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI6" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
         <v>2.0</v>
@@ -2056,10 +2164,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AM6" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN6" t="n">
         <v>4.0</v>
@@ -2184,16 +2292,16 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45509.0</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2202,7 +2310,7 @@
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2211,7 +2319,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L7" t="n">
         <v>3.0</v>
@@ -2223,10 +2331,10 @@
         <v>2.4</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q7" t="n">
         <v>18.0</v>
@@ -2274,16 +2382,16 @@
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="AG7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ7" t="n">
         <v>3.0</v>
@@ -2292,10 +2400,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AM7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN7" t="n">
         <v>3.0</v>
@@ -2420,16 +2528,16 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2438,7 +2546,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I8" t="n">
         <v>2.0</v>
@@ -2447,7 +2555,7 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -2459,10 +2567,10 @@
         <v>11.19</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q8" t="n">
         <v>19.0</v>
@@ -2510,16 +2618,16 @@
         <v>17.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="AG8" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH8" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI8" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ8" t="n">
         <v>2.0</v>
@@ -2528,10 +2636,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AM8" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN8" t="n">
         <v>3.0</v>
@@ -2656,16 +2764,16 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -2674,7 +2782,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2683,7 +2791,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L9" t="n">
         <v>2.59</v>
@@ -2695,10 +2803,10 @@
         <v>2.75</v>
       </c>
       <c r="O9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q9" t="n">
         <v>21.0</v>
@@ -2746,16 +2854,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="AG9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ9" t="n">
         <v>3.0</v>
@@ -2764,10 +2872,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="AM9" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN9" t="n">
         <v>2.0</v>
@@ -2892,16 +3000,16 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2910,7 +3018,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
@@ -2919,7 +3027,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L10" t="n">
         <v>3.15</v>
@@ -2931,10 +3039,10 @@
         <v>2.18</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -2982,16 +3090,16 @@
         <v>20.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG10" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH10" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI10" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.0</v>
@@ -3000,10 +3108,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AM10" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN10" t="n">
         <v>4.0</v>
@@ -3128,16 +3236,16 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -3146,7 +3254,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3155,7 +3263,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L11" t="n">
         <v>8.12</v>
@@ -3167,10 +3275,10 @@
         <v>1.34</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Q11" t="n">
         <v>4.0</v>
@@ -3218,16 +3326,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="AG11" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH11" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI11" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ11" t="n">
         <v>3.0</v>
@@ -3236,10 +3344,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AM11" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN11" t="n">
         <v>2.0</v>
@@ -3364,16 +3472,16 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -3382,7 +3490,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3391,7 +3499,7 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L12" t="n">
         <v>1.92</v>
@@ -3403,10 +3511,10 @@
         <v>4.16</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q12" t="n">
         <v>11.0</v>
@@ -3454,16 +3562,16 @@
         <v>29.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="AG12" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH12" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI12" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ12" t="n">
         <v>5.0</v>
@@ -3472,10 +3580,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AM12" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN12" t="n">
         <v>4.0</v>
@@ -3600,16 +3708,16 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -3618,7 +3726,7 @@
         <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3627,7 +3735,7 @@
         <v>2.0</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="n">
         <v>1.79</v>
@@ -3639,10 +3747,10 @@
         <v>4.72</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q13" t="n">
         <v>14.0</v>
@@ -3690,16 +3798,16 @@
         <v>28.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH13" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI13" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ13" t="n">
         <v>7.0</v>
@@ -3708,10 +3816,10 @@
         <v>1.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AM13" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN13" t="n">
         <v>3.0</v>
@@ -3836,16 +3944,16 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3854,7 +3962,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3863,7 +3971,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L14" t="n">
         <v>1.9</v>
@@ -3875,10 +3983,10 @@
         <v>4.08</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q14" t="n">
         <v>3.0</v>
@@ -3926,16 +4034,16 @@
         <v>25.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH14" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI14" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.0</v>
@@ -3944,10 +4052,10 @@
         <v>1.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AM14" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN14" t="n">
         <v>2.0</v>
@@ -4072,16 +4180,16 @@
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -4090,7 +4198,7 @@
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -4099,7 +4207,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
@@ -4111,10 +4219,10 @@
         <v>3.28</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q15" t="n">
         <v>13.0</v>
@@ -4162,16 +4270,16 @@
         <v>29.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH15" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI15" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.0</v>
@@ -4180,10 +4288,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AM15" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN15" t="n">
         <v>4.0</v>
@@ -4308,16 +4416,16 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F16" t="n">
         <v>6.0</v>
@@ -4326,7 +4434,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I16" t="n">
         <v>2.0</v>
@@ -4335,7 +4443,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -4347,10 +4455,10 @@
         <v>13.46</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q16" t="n">
         <v>17.0</v>
@@ -4398,16 +4506,16 @@
         <v>22.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH16" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI16" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ16" t="n">
         <v>4.0</v>
@@ -4416,10 +4524,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AM16" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN16" t="n">
         <v>6.0</v>
@@ -4544,16 +4652,16 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -4562,7 +4670,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4571,7 +4679,7 @@
         <v>2.0</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L17" t="n">
         <v>9.66</v>
@@ -4583,10 +4691,10 @@
         <v>1.27</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q17" t="n">
         <v>3.0</v>
@@ -4634,16 +4742,16 @@
         <v>19.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ17" t="n">
         <v>3.0</v>
@@ -4652,10 +4760,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AM17" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN17" t="n">
         <v>3.0</v>
@@ -4780,16 +4888,16 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -4798,7 +4906,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -4807,7 +4915,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L18" t="n">
         <v>1.72</v>
@@ -4819,10 +4927,10 @@
         <v>4.83</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q18" t="n">
         <v>12.0</v>
@@ -4870,16 +4978,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH18" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI18" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4888,10 +4996,10 @@
         <v>1.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN18" t="n">
         <v>2.0</v>
@@ -5016,16 +5124,16 @@
         <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F19" t="n">
         <v>3.0</v>
@@ -5034,7 +5142,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5043,7 +5151,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L19" t="n">
         <v>2.82</v>
@@ -5055,10 +5163,10 @@
         <v>2.47</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q19" t="n">
         <v>14.0</v>
@@ -5106,16 +5214,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH19" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI19" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ19" t="n">
         <v>5.0</v>
@@ -5124,10 +5232,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="AN19" t="n">
         <v>4.0</v>
@@ -5252,16 +5360,16 @@
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -5270,7 +5378,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5279,7 +5387,7 @@
         <v>2.0</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L20" t="n">
         <v>2.19</v>
@@ -5291,10 +5399,10 @@
         <v>3.48</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q20" t="n">
         <v>14.0</v>
@@ -5342,16 +5450,16 @@
         <v>25.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH20" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI20" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.0</v>
@@ -5360,10 +5468,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AN20" t="n">
         <v>4.0</v>
@@ -5488,16 +5596,16 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -5506,7 +5614,7 @@
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5515,7 +5623,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L21" t="n">
         <v>3.01</v>
@@ -5527,10 +5635,10 @@
         <v>2.47</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q21" t="n">
         <v>13.0</v>
@@ -5578,16 +5686,16 @@
         <v>23.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ21" t="n">
         <v>1.0</v>
@@ -5596,10 +5704,10 @@
         <v>1.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="n">
         <v>3.0</v>
@@ -5724,16 +5832,16 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -5742,7 +5850,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -5751,7 +5859,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L22" t="n">
         <v>3.7</v>
@@ -5763,10 +5871,10 @@
         <v>1.93</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q22" t="n">
         <v>8.0</v>
@@ -5814,16 +5922,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AH22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5832,10 +5940,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="n">
         <v>1.0</v>
@@ -5960,16 +6068,16 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -5978,7 +6086,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
@@ -5987,7 +6095,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L23" t="n">
         <v>1.63</v>
@@ -5999,10 +6107,10 @@
         <v>4.82</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q23" t="n">
         <v>14.0</v>
@@ -6050,16 +6158,16 @@
         <v>23.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH23" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI23" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ23" t="n">
         <v>9.0</v>
@@ -6068,10 +6176,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="n">
         <v>3.0</v>
@@ -6196,16 +6304,16 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6214,7 +6322,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6223,7 +6331,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -6235,10 +6343,10 @@
         <v>3.84</v>
       </c>
       <c r="O24" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6286,16 +6394,16 @@
         <v>21.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AH24" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI24" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.0</v>
@@ -6304,10 +6412,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6432,16 +6540,16 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6450,7 +6558,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6459,7 +6567,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L25" t="n">
         <v>2.83</v>
@@ -6471,10 +6579,10 @@
         <v>2.55</v>
       </c>
       <c r="O25" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q25" t="n">
         <v>14.0</v>
@@ -6522,16 +6630,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="AG25" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH25" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI25" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ25" t="n">
         <v>5.0</v>
@@ -6540,10 +6648,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="n">
         <v>2.0</v>
@@ -6668,16 +6776,16 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -6686,7 +6794,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -6695,7 +6803,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L26" t="n">
         <v>1.68</v>
@@ -6707,10 +6815,10 @@
         <v>5.03</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q26" t="n">
         <v>11.0</v>
@@ -6758,16 +6866,16 @@
         <v>30.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH26" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI26" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.0</v>
@@ -6776,10 +6884,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="n">
         <v>3.0</v>
@@ -6904,16 +7012,16 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -6922,7 +7030,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6931,7 +7039,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L27" t="n">
         <v>1.15</v>
@@ -6943,10 +7051,10 @@
         <v>13.77</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -6994,16 +7102,16 @@
         <v>20.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH27" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI27" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ27" t="n">
         <v>2.0</v>
@@ -7012,10 +7120,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="n">
         <v>2.0</v>
@@ -7140,16 +7248,16 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -7158,7 +7266,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7167,7 +7275,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L28" t="n">
         <v>1.64</v>
@@ -7179,10 +7287,10 @@
         <v>5.19</v>
       </c>
       <c r="O28" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q28" t="n">
         <v>17.0</v>
@@ -7230,16 +7338,16 @@
         <v>23.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="AG28" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH28" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI28" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -7248,10 +7356,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AM28" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AN28" t="n">
         <v>2.0</v>
@@ -7376,16 +7484,16 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -7394,7 +7502,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
@@ -7403,7 +7511,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L29" t="n">
         <v>2.77</v>
@@ -7415,10 +7523,10 @@
         <v>2.42</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q29" t="n">
         <v>9.0</v>
@@ -7466,16 +7574,16 @@
         <v>25.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AG29" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH29" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI29" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ29" t="n">
         <v>3.0</v>
@@ -7484,10 +7592,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AM29" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="n">
         <v>2.0</v>
@@ -7612,16 +7720,16 @@
         <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7630,7 +7738,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7639,7 +7747,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L30" t="n">
         <v>2.25</v>
@@ -7651,10 +7759,10 @@
         <v>3.34</v>
       </c>
       <c r="O30" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7702,16 +7810,16 @@
         <v>24.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AG30" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH30" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI30" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7720,10 +7828,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="AN30" t="n">
         <v>4.0</v>
@@ -7848,16 +7956,16 @@
         <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7866,7 +7974,7 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7875,7 +7983,7 @@
         <v>1.0</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L31" t="n">
         <v>6.64</v>
@@ -7887,10 +7995,10 @@
         <v>1.43</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q31" t="n">
         <v>5.0</v>
@@ -7938,16 +8046,16 @@
         <v>24.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="AG31" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AH31" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI31" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.0</v>
@@ -7956,10 +8064,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AM31" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AN31" t="n">
         <v>1.0</v>
@@ -8084,16 +8192,16 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -8102,7 +8210,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -8111,7 +8219,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L32" t="n">
         <v>2.09</v>
@@ -8123,10 +8231,10 @@
         <v>3.48</v>
       </c>
       <c r="O32" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q32" t="n">
         <v>14.0</v>
@@ -8174,16 +8282,16 @@
         <v>28.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -8192,10 +8300,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AM32" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AN32" t="n">
         <v>6.0</v>
@@ -8320,16 +8428,16 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -8338,7 +8446,7 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -8347,7 +8455,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L33" t="n">
         <v>2.86</v>
@@ -8359,10 +8467,10 @@
         <v>2.49</v>
       </c>
       <c r="O33" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -8410,16 +8518,16 @@
         <v>23.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH33" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI33" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ33" t="n">
         <v>6.0</v>
@@ -8428,10 +8536,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AM33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AN33" t="n">
         <v>3.0</v>
@@ -8556,16 +8664,16 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -8574,7 +8682,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -8583,7 +8691,7 @@
         <v>2.0</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L34" t="n">
         <v>3.01</v>
@@ -8595,10 +8703,10 @@
         <v>2.27</v>
       </c>
       <c r="O34" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -8646,16 +8754,16 @@
         <v>14.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH34" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI34" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ34" t="n">
         <v>3.0</v>
@@ -8664,10 +8772,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AM34" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="AN34" t="n">
         <v>3.0</v>
@@ -8792,16 +8900,16 @@
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8810,7 +8918,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -8819,7 +8927,7 @@
         <v>1.0</v>
       </c>
       <c r="K35" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L35" t="n">
         <v>1.66</v>
@@ -8831,10 +8939,10 @@
         <v>5.03</v>
       </c>
       <c r="O35" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q35" t="n">
         <v>21.0</v>
@@ -8882,16 +8990,16 @@
         <v>16.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AG35" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH35" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI35" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -8900,10 +9008,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AM35" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="n">
         <v>2.0</v>
@@ -9028,16 +9136,16 @@
         <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -9046,7 +9154,7 @@
         <v>3.0</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9055,7 +9163,7 @@
         <v>1.0</v>
       </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L36" t="n">
         <v>2.35</v>
@@ -9067,10 +9175,10 @@
         <v>3.29</v>
       </c>
       <c r="O36" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -9118,16 +9226,16 @@
         <v>20.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH36" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI36" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ36" t="n">
         <v>3.0</v>
@@ -9136,10 +9244,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM36" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="n">
         <v>6.0</v>
@@ -9264,16 +9372,16 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -9282,7 +9390,7 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
@@ -9291,7 +9399,7 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L37" t="n">
         <v>2.45</v>
@@ -9303,10 +9411,10 @@
         <v>3.02</v>
       </c>
       <c r="O37" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q37" t="n">
         <v>9.0</v>
@@ -9354,16 +9462,16 @@
         <v>25.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AG37" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH37" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI37" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ37" t="n">
         <v>6.0</v>
@@ -9372,10 +9480,10 @@
         <v>2.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AM37" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AN37" t="n">
         <v>3.0</v>
@@ -9500,16 +9608,16 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -9518,7 +9626,7 @@
         <v>6.0</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -9527,7 +9635,7 @@
         <v>3.0</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L38" t="n">
         <v>13.82</v>
@@ -9539,10 +9647,10 @@
         <v>1.17</v>
       </c>
       <c r="O38" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q38" t="n">
         <v>5.0</v>
@@ -9590,16 +9698,16 @@
         <v>17.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AG38" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AH38" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AI38" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -9608,10 +9716,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AM38" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="n">
         <v>6.0</v>
@@ -9736,16 +9844,16 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -9754,7 +9862,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -9763,7 +9871,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L39" t="n">
         <v>1.35</v>
@@ -9775,10 +9883,10 @@
         <v>8.16</v>
       </c>
       <c r="O39" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Q39" t="n">
         <v>18.0</v>
@@ -9826,16 +9934,16 @@
         <v>23.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="AG39" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AH39" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AI39" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -9844,10 +9952,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AM39" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AN39" t="n">
         <v>1.0</v>
@@ -9965,6 +10073,2838 @@
       </c>
       <c r="BZ39" t="n">
         <v>78.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P40" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>4476.0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O41" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>2925.0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>3825.0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O42" t="s">
+        <v>143</v>
+      </c>
+      <c r="P42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O43" t="s">
+        <v>150</v>
+      </c>
+      <c r="P43" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O44" t="s">
+        <v>149</v>
+      </c>
+      <c r="P44" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>525.0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>2625.0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="N45" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="O45" t="s">
+        <v>150</v>
+      </c>
+      <c r="P45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="O46" t="s">
+        <v>145</v>
+      </c>
+      <c r="P46" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>3381.0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>5040.0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>153.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O47" t="s">
+        <v>149</v>
+      </c>
+      <c r="P47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>3270.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>3250.0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O48" t="s">
+        <v>150</v>
+      </c>
+      <c r="P48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1687.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O49" t="s">
+        <v>146</v>
+      </c>
+      <c r="P49" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O50" t="s">
+        <v>145</v>
+      </c>
+      <c r="P50" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="O51" t="s">
+        <v>143</v>
+      </c>
+      <c r="P51" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>609.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>56.0</v>
       </c>
     </row>
   </sheetData>

--- a/SC0_SPREAD.xlsx
+++ b/SC0_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="310">
   <si>
     <t>Div</t>
   </si>
@@ -395,6 +395,54 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>SC0</t>
   </si>
   <si>
@@ -611,6 +659,33 @@
     <t>1-6</t>
   </si>
   <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>13-2</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -765,6 +840,54 @@
   </si>
   <si>
     <t>2024-10-20-Kilmarnock-Rangers</t>
+  </si>
+  <si>
+    <t>2024-10-26-Dundee-St Johnstone</t>
+  </si>
+  <si>
+    <t>2024-10-26-Ross County-Kilmarnock</t>
+  </si>
+  <si>
+    <t>2024-10-26-Aberdeen-Dundee United</t>
+  </si>
+  <si>
+    <t>2024-10-27-Hibernian-Hearts</t>
+  </si>
+  <si>
+    <t>2024-10-27-Motherwell-Celtic</t>
+  </si>
+  <si>
+    <t>2024-10-27-Rangers-St Mirren</t>
+  </si>
+  <si>
+    <t>2024-10-30-Celtic-Dundee</t>
+  </si>
+  <si>
+    <t>2024-10-30-Dundee United-Motherwell</t>
+  </si>
+  <si>
+    <t>2024-10-30-Hearts-Kilmarnock</t>
+  </si>
+  <si>
+    <t>2024-10-30-Ross County-Hibernian</t>
+  </si>
+  <si>
+    <t>2024-10-30-St Mirren-St Johnstone</t>
+  </si>
+  <si>
+    <t>2024-10-30-Aberdeen-Rangers</t>
+  </si>
+  <si>
+    <t>2024-11-02-St Johnstone-Hearts</t>
+  </si>
+  <si>
+    <t>2024-11-02-St Mirren-Ross County</t>
+  </si>
+  <si>
+    <t>2024-11-03-Dundee-Kilmarnock</t>
+  </si>
+  <si>
+    <t>2024-11-03-Hibernian-Dundee United</t>
   </si>
   <si>
     <t/>
@@ -1112,16 +1235,16 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -1130,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1139,7 +1262,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L2" t="n">
         <v>5.09</v>
@@ -1151,10 +1274,10 @@
         <v>1.61</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="Q2" t="n">
         <v>17.0</v>
@@ -1202,16 +1325,16 @@
         <v>25.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ2" t="n">
         <v>4.0</v>
@@ -1220,10 +1343,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="AM2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN2" t="n">
         <v>0.0</v>
@@ -1348,16 +1471,16 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -1366,7 +1489,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1375,7 +1498,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L3" t="n">
         <v>1.9</v>
@@ -1387,10 +1510,10 @@
         <v>3.92</v>
       </c>
       <c r="O3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="Q3" t="n">
         <v>11.0</v>
@@ -1438,16 +1561,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="AG3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI3" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ3" t="n">
         <v>2.0</v>
@@ -1456,10 +1579,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="AM3" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN3" t="n">
         <v>0.0</v>
@@ -1584,16 +1707,16 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -1602,7 +1725,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I4" t="n">
         <v>2.0</v>
@@ -1611,7 +1734,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L4" t="n">
         <v>2.36</v>
@@ -1623,10 +1746,10 @@
         <v>2.98</v>
       </c>
       <c r="O4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="n">
         <v>9.0</v>
@@ -1674,16 +1797,16 @@
         <v>13.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="AG4" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH4" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI4" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ4" t="n">
         <v>2.0</v>
@@ -1692,10 +1815,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="AM4" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN4" t="n">
         <v>4.0</v>
@@ -1820,16 +1943,16 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1838,7 +1961,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -1847,7 +1970,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L5" t="n">
         <v>2.47</v>
@@ -1859,10 +1982,10 @@
         <v>2.92</v>
       </c>
       <c r="O5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="Q5" t="n">
         <v>11.0</v>
@@ -1910,16 +2033,16 @@
         <v>9.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="AG5" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH5" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI5" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ5" t="n">
         <v>4.0</v>
@@ -1928,10 +2051,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="AM5" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN5" t="n">
         <v>3.0</v>
@@ -2056,16 +2179,16 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F6" t="n">
         <v>4.0</v>
@@ -2074,7 +2197,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I6" t="n">
         <v>2.0</v>
@@ -2083,7 +2206,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L6" t="n">
         <v>1.16</v>
@@ -2095,10 +2218,10 @@
         <v>14.35</v>
       </c>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Q6" t="n">
         <v>20.0</v>
@@ -2146,16 +2269,16 @@
         <v>19.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AG6" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH6" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI6" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ6" t="n">
         <v>2.0</v>
@@ -2164,10 +2287,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="AM6" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN6" t="n">
         <v>4.0</v>
@@ -2292,16 +2415,16 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45509.0</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2310,7 +2433,7 @@
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2319,7 +2442,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L7" t="n">
         <v>3.0</v>
@@ -2331,10 +2454,10 @@
         <v>2.4</v>
       </c>
       <c r="O7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
         <v>18.0</v>
@@ -2382,16 +2505,16 @@
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AG7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI7" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ7" t="n">
         <v>3.0</v>
@@ -2400,10 +2523,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="AM7" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN7" t="n">
         <v>3.0</v>
@@ -2528,16 +2651,16 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2546,7 +2669,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I8" t="n">
         <v>2.0</v>
@@ -2555,7 +2678,7 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -2567,10 +2690,10 @@
         <v>11.19</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="Q8" t="n">
         <v>19.0</v>
@@ -2618,16 +2741,16 @@
         <v>17.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AG8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH8" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI8" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ8" t="n">
         <v>2.0</v>
@@ -2636,10 +2759,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="AM8" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN8" t="n">
         <v>3.0</v>
@@ -2764,16 +2887,16 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -2782,7 +2905,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2791,7 +2914,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L9" t="n">
         <v>2.59</v>
@@ -2803,10 +2926,10 @@
         <v>2.75</v>
       </c>
       <c r="O9" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="Q9" t="n">
         <v>21.0</v>
@@ -2854,16 +2977,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="AG9" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH9" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI9" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ9" t="n">
         <v>3.0</v>
@@ -2872,10 +2995,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="AM9" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN9" t="n">
         <v>2.0</v>
@@ -3000,16 +3123,16 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -3018,7 +3141,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
@@ -3027,7 +3150,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L10" t="n">
         <v>3.15</v>
@@ -3039,10 +3162,10 @@
         <v>2.18</v>
       </c>
       <c r="O10" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -3090,16 +3213,16 @@
         <v>20.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AG10" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH10" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI10" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.0</v>
@@ -3108,10 +3231,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="AM10" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN10" t="n">
         <v>4.0</v>
@@ -3236,16 +3359,16 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -3254,7 +3377,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3263,7 +3386,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L11" t="n">
         <v>8.12</v>
@@ -3275,10 +3398,10 @@
         <v>1.34</v>
       </c>
       <c r="O11" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Q11" t="n">
         <v>4.0</v>
@@ -3326,16 +3449,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AG11" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH11" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI11" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ11" t="n">
         <v>3.0</v>
@@ -3344,10 +3467,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="AM11" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN11" t="n">
         <v>2.0</v>
@@ -3472,16 +3595,16 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -3490,7 +3613,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3499,7 +3622,7 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L12" t="n">
         <v>1.92</v>
@@ -3511,10 +3634,10 @@
         <v>4.16</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Q12" t="n">
         <v>11.0</v>
@@ -3562,16 +3685,16 @@
         <v>29.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AG12" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH12" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI12" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ12" t="n">
         <v>5.0</v>
@@ -3580,10 +3703,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="AM12" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN12" t="n">
         <v>4.0</v>
@@ -3708,16 +3831,16 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -3726,7 +3849,7 @@
         <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3735,7 +3858,7 @@
         <v>2.0</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L13" t="n">
         <v>1.79</v>
@@ -3747,10 +3870,10 @@
         <v>4.72</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Q13" t="n">
         <v>14.0</v>
@@ -3798,16 +3921,16 @@
         <v>28.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="AG13" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH13" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI13" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ13" t="n">
         <v>7.0</v>
@@ -3816,10 +3939,10 @@
         <v>1.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="AM13" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN13" t="n">
         <v>3.0</v>
@@ -3944,16 +4067,16 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -3962,7 +4085,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3971,7 +4094,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L14" t="n">
         <v>1.9</v>
@@ -3983,10 +4106,10 @@
         <v>4.08</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="n">
         <v>3.0</v>
@@ -4034,16 +4157,16 @@
         <v>25.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="AG14" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH14" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI14" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.0</v>
@@ -4052,10 +4175,10 @@
         <v>1.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="AM14" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN14" t="n">
         <v>2.0</v>
@@ -4180,16 +4303,16 @@
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -4198,7 +4321,7 @@
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -4207,7 +4330,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
@@ -4219,10 +4342,10 @@
         <v>3.28</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q15" t="n">
         <v>13.0</v>
@@ -4270,16 +4393,16 @@
         <v>29.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH15" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI15" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.0</v>
@@ -4288,10 +4411,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AM15" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN15" t="n">
         <v>4.0</v>
@@ -4416,16 +4539,16 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F16" t="n">
         <v>6.0</v>
@@ -4434,7 +4557,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I16" t="n">
         <v>2.0</v>
@@ -4443,7 +4566,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -4455,10 +4578,10 @@
         <v>13.46</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Q16" t="n">
         <v>17.0</v>
@@ -4506,16 +4629,16 @@
         <v>22.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH16" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI16" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ16" t="n">
         <v>4.0</v>
@@ -4524,10 +4647,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AM16" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN16" t="n">
         <v>6.0</v>
@@ -4652,16 +4775,16 @@
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -4670,7 +4793,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4679,7 +4802,7 @@
         <v>2.0</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="n">
         <v>9.66</v>
@@ -4691,10 +4814,10 @@
         <v>1.27</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Q17" t="n">
         <v>3.0</v>
@@ -4742,16 +4865,16 @@
         <v>19.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH17" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI17" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ17" t="n">
         <v>3.0</v>
@@ -4760,10 +4883,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AM17" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN17" t="n">
         <v>3.0</v>
@@ -4888,16 +5011,16 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -4906,7 +5029,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -4915,7 +5038,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L18" t="n">
         <v>1.72</v>
@@ -4927,10 +5050,10 @@
         <v>4.83</v>
       </c>
       <c r="O18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q18" t="n">
         <v>12.0</v>
@@ -4978,16 +5101,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH18" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI18" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4996,10 +5119,10 @@
         <v>1.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AM18" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN18" t="n">
         <v>2.0</v>
@@ -5124,16 +5247,16 @@
         <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F19" t="n">
         <v>3.0</v>
@@ -5142,7 +5265,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5151,7 +5274,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L19" t="n">
         <v>2.82</v>
@@ -5163,10 +5286,10 @@
         <v>2.47</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Q19" t="n">
         <v>14.0</v>
@@ -5214,16 +5337,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH19" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI19" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ19" t="n">
         <v>5.0</v>
@@ -5232,10 +5355,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AM19" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="AN19" t="n">
         <v>4.0</v>
@@ -5360,16 +5483,16 @@
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F20" t="n">
         <v>2.0</v>
@@ -5378,7 +5501,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5387,7 +5510,7 @@
         <v>2.0</v>
       </c>
       <c r="K20" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L20" t="n">
         <v>2.19</v>
@@ -5399,10 +5522,10 @@
         <v>3.48</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q20" t="n">
         <v>14.0</v>
@@ -5450,16 +5573,16 @@
         <v>25.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH20" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI20" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ20" t="n">
         <v>6.0</v>
@@ -5468,10 +5591,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="AM20" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="AN20" t="n">
         <v>4.0</v>
@@ -5596,16 +5719,16 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -5614,7 +5737,7 @@
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5623,7 +5746,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L21" t="n">
         <v>3.01</v>
@@ -5635,10 +5758,10 @@
         <v>2.47</v>
       </c>
       <c r="O21" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Q21" t="n">
         <v>13.0</v>
@@ -5686,16 +5809,16 @@
         <v>23.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH21" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI21" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ21" t="n">
         <v>1.0</v>
@@ -5704,10 +5827,10 @@
         <v>1.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="AN21" t="n">
         <v>3.0</v>
@@ -5832,16 +5955,16 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -5850,7 +5973,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -5859,7 +5982,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L22" t="n">
         <v>3.7</v>
@@ -5871,10 +5994,10 @@
         <v>1.93</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q22" t="n">
         <v>8.0</v>
@@ -5922,16 +6045,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH22" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI22" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5940,10 +6063,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="AN22" t="n">
         <v>1.0</v>
@@ -6068,16 +6191,16 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F23" t="n">
         <v>3.0</v>
@@ -6086,7 +6209,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
@@ -6095,7 +6218,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L23" t="n">
         <v>1.63</v>
@@ -6107,10 +6230,10 @@
         <v>4.82</v>
       </c>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="Q23" t="n">
         <v>14.0</v>
@@ -6158,16 +6281,16 @@
         <v>23.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AG23" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH23" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI23" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ23" t="n">
         <v>9.0</v>
@@ -6176,10 +6299,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="AN23" t="n">
         <v>3.0</v>
@@ -6304,16 +6427,16 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6322,7 +6445,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6331,7 +6454,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -6343,10 +6466,10 @@
         <v>3.84</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6394,16 +6517,16 @@
         <v>21.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH24" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI24" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.0</v>
@@ -6412,10 +6535,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6540,16 +6663,16 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6558,7 +6681,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6567,7 +6690,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L25" t="n">
         <v>2.83</v>
@@ -6579,10 +6702,10 @@
         <v>2.55</v>
       </c>
       <c r="O25" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="Q25" t="n">
         <v>14.0</v>
@@ -6630,16 +6753,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH25" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI25" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ25" t="n">
         <v>5.0</v>
@@ -6648,10 +6771,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="AN25" t="n">
         <v>2.0</v>
@@ -6776,16 +6899,16 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F26" t="n">
         <v>2.0</v>
@@ -6794,7 +6917,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -6803,7 +6926,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L26" t="n">
         <v>1.68</v>
@@ -6815,10 +6938,10 @@
         <v>5.03</v>
       </c>
       <c r="O26" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="Q26" t="n">
         <v>11.0</v>
@@ -6866,16 +6989,16 @@
         <v>30.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AG26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.0</v>
@@ -6884,10 +7007,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="AN26" t="n">
         <v>3.0</v>
@@ -7012,16 +7135,16 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -7030,7 +7153,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -7039,7 +7162,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L27" t="n">
         <v>1.15</v>
@@ -7051,10 +7174,10 @@
         <v>13.77</v>
       </c>
       <c r="O27" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -7102,16 +7225,16 @@
         <v>20.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ27" t="n">
         <v>2.0</v>
@@ -7120,10 +7243,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="n">
         <v>2.0</v>
@@ -7248,16 +7371,16 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F28" t="n">
         <v>2.0</v>
@@ -7266,7 +7389,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7275,7 +7398,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L28" t="n">
         <v>1.64</v>
@@ -7287,10 +7410,10 @@
         <v>5.19</v>
       </c>
       <c r="O28" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q28" t="n">
         <v>17.0</v>
@@ -7338,16 +7461,16 @@
         <v>23.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH28" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI28" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -7356,10 +7479,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AN28" t="n">
         <v>2.0</v>
@@ -7484,16 +7607,16 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -7502,7 +7625,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I29" t="n">
         <v>2.0</v>
@@ -7511,7 +7634,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L29" t="n">
         <v>2.77</v>
@@ -7523,10 +7646,10 @@
         <v>2.42</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q29" t="n">
         <v>9.0</v>
@@ -7574,16 +7697,16 @@
         <v>25.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="AG29" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH29" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI29" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ29" t="n">
         <v>3.0</v>
@@ -7592,10 +7715,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="n">
         <v>2.0</v>
@@ -7720,16 +7843,16 @@
         <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7738,7 +7861,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7747,7 +7870,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L30" t="n">
         <v>2.25</v>
@@ -7759,10 +7882,10 @@
         <v>3.34</v>
       </c>
       <c r="O30" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7810,16 +7933,16 @@
         <v>24.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AG30" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH30" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI30" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7828,10 +7951,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="n">
         <v>4.0</v>
@@ -7956,16 +8079,16 @@
         <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7974,7 +8097,7 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7983,7 +8106,7 @@
         <v>1.0</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L31" t="n">
         <v>6.64</v>
@@ -7995,10 +8118,10 @@
         <v>1.43</v>
       </c>
       <c r="O31" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q31" t="n">
         <v>5.0</v>
@@ -8046,16 +8169,16 @@
         <v>24.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="AG31" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH31" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI31" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.0</v>
@@ -8064,10 +8187,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="n">
         <v>1.0</v>
@@ -8192,16 +8315,16 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -8210,7 +8333,7 @@
         <v>3.0</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -8219,7 +8342,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L32" t="n">
         <v>2.09</v>
@@ -8231,10 +8354,10 @@
         <v>3.48</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Q32" t="n">
         <v>14.0</v>
@@ -8282,16 +8405,16 @@
         <v>28.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AG32" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH32" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI32" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -8300,10 +8423,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="n">
         <v>6.0</v>
@@ -8428,16 +8551,16 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -8446,7 +8569,7 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -8455,7 +8578,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L33" t="n">
         <v>2.86</v>
@@ -8467,10 +8590,10 @@
         <v>2.49</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -8518,16 +8641,16 @@
         <v>23.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="AG33" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH33" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI33" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ33" t="n">
         <v>6.0</v>
@@ -8536,10 +8659,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="AM33" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="n">
         <v>3.0</v>
@@ -8664,16 +8787,16 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -8682,7 +8805,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -8691,7 +8814,7 @@
         <v>2.0</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L34" t="n">
         <v>3.01</v>
@@ -8703,10 +8826,10 @@
         <v>2.27</v>
       </c>
       <c r="O34" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -8754,16 +8877,16 @@
         <v>14.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="AG34" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH34" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI34" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ34" t="n">
         <v>3.0</v>
@@ -8772,10 +8895,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AM34" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="AN34" t="n">
         <v>3.0</v>
@@ -8900,16 +9023,16 @@
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8918,7 +9041,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -8927,7 +9050,7 @@
         <v>1.0</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L35" t="n">
         <v>1.66</v>
@@ -8939,10 +9062,10 @@
         <v>5.03</v>
       </c>
       <c r="O35" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="Q35" t="n">
         <v>21.0</v>
@@ -8990,16 +9113,16 @@
         <v>16.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AG35" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH35" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI35" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -9008,10 +9131,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AM35" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="n">
         <v>2.0</v>
@@ -9136,16 +9259,16 @@
         <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F36" t="n">
         <v>3.0</v>
@@ -9154,7 +9277,7 @@
         <v>3.0</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9163,7 +9286,7 @@
         <v>1.0</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L36" t="n">
         <v>2.35</v>
@@ -9175,10 +9298,10 @@
         <v>3.29</v>
       </c>
       <c r="O36" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -9226,16 +9349,16 @@
         <v>20.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH36" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI36" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ36" t="n">
         <v>3.0</v>
@@ -9244,10 +9367,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="AM36" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="n">
         <v>6.0</v>
@@ -9372,16 +9495,16 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -9390,7 +9513,7 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I37" t="n">
         <v>2.0</v>
@@ -9399,7 +9522,7 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L37" t="n">
         <v>2.45</v>
@@ -9411,10 +9534,10 @@
         <v>3.02</v>
       </c>
       <c r="O37" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="Q37" t="n">
         <v>9.0</v>
@@ -9462,16 +9585,16 @@
         <v>25.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="AG37" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH37" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI37" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ37" t="n">
         <v>6.0</v>
@@ -9480,10 +9603,10 @@
         <v>2.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="AM37" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="AN37" t="n">
         <v>3.0</v>
@@ -9608,16 +9731,16 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -9626,7 +9749,7 @@
         <v>6.0</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -9635,7 +9758,7 @@
         <v>3.0</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L38" t="n">
         <v>13.82</v>
@@ -9647,10 +9770,10 @@
         <v>1.17</v>
       </c>
       <c r="O38" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q38" t="n">
         <v>5.0</v>
@@ -9698,16 +9821,16 @@
         <v>17.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AG38" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH38" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI38" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -9716,10 +9839,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="AM38" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="n">
         <v>6.0</v>
@@ -9844,16 +9967,16 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -9862,7 +9985,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -9871,7 +9994,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L39" t="n">
         <v>1.35</v>
@@ -9883,10 +10006,10 @@
         <v>8.16</v>
       </c>
       <c r="O39" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="Q39" t="n">
         <v>18.0</v>
@@ -9934,16 +10057,16 @@
         <v>23.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AG39" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH39" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI39" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -9952,10 +10075,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AM39" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AN39" t="n">
         <v>1.0</v>
@@ -10080,16 +10203,16 @@
         <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
@@ -10098,7 +10221,7 @@
         <v>3.0</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -10107,7 +10230,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L40" t="n">
         <v>2.3</v>
@@ -10119,10 +10242,10 @@
         <v>3.13</v>
       </c>
       <c r="O40" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Q40" t="n">
         <v>10.0</v>
@@ -10170,16 +10293,16 @@
         <v>22.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AG40" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH40" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI40" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ40" t="n">
         <v>2.0</v>
@@ -10188,10 +10311,10 @@
         <v>1.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="AM40" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="n">
         <v>5.0</v>
@@ -10316,16 +10439,16 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -10334,7 +10457,7 @@
         <v>2.0</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -10343,7 +10466,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L41" t="n">
         <v>2.08</v>
@@ -10355,10 +10478,10 @@
         <v>3.55</v>
       </c>
       <c r="O41" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Q41" t="n">
         <v>17.0</v>
@@ -10406,16 +10529,16 @@
         <v>24.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AG41" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH41" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI41" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ41" t="n">
         <v>6.0</v>
@@ -10424,10 +10547,10 @@
         <v>1.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="AM41" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="AN41" t="n">
         <v>3.0</v>
@@ -10552,16 +10675,16 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -10570,7 +10693,7 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -10579,7 +10702,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L42" t="n">
         <v>2.34</v>
@@ -10591,10 +10714,10 @@
         <v>3.18</v>
       </c>
       <c r="O42" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q42" t="n">
         <v>16.0</v>
@@ -10642,16 +10765,16 @@
         <v>10.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AG42" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH42" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI42" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ42" t="n">
         <v>3.0</v>
@@ -10660,10 +10783,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="AN42" t="n">
         <v>1.0</v>
@@ -10788,16 +10911,16 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -10806,7 +10929,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -10815,7 +10938,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L43" t="n">
         <v>13.57</v>
@@ -10827,10 +10950,10 @@
         <v>1.16</v>
       </c>
       <c r="O43" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Q43" t="n">
         <v>8.0</v>
@@ -10878,16 +11001,16 @@
         <v>22.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AG43" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH43" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI43" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ43" t="n">
         <v>4.0</v>
@@ -10896,10 +11019,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AM43" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="AN43" t="n">
         <v>3.0</v>
@@ -11024,16 +11147,16 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -11042,7 +11165,7 @@
         <v>2.0</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -11051,7 +11174,7 @@
         <v>1.0</v>
       </c>
       <c r="K44" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L44" t="n">
         <v>1.68</v>
@@ -11063,10 +11186,10 @@
         <v>4.75</v>
       </c>
       <c r="O44" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Q44" t="n">
         <v>11.0</v>
@@ -11114,16 +11237,16 @@
         <v>25.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH44" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI44" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ44" t="n">
         <v>5.0</v>
@@ -11132,10 +11255,10 @@
         <v>1.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AM44" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="AN44" t="n">
         <v>5.0</v>
@@ -11260,16 +11383,16 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -11278,7 +11401,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -11287,7 +11410,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L45" t="n">
         <v>1.12</v>
@@ -11299,10 +11422,10 @@
         <v>16.89</v>
       </c>
       <c r="O45" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="Q45" t="n">
         <v>21.0</v>
@@ -11350,16 +11473,16 @@
         <v>34.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AG45" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH45" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI45" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ45" t="n">
         <v>2.0</v>
@@ -11368,10 +11491,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="AM45" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="AN45" t="n">
         <v>2.0</v>
@@ -11496,16 +11619,16 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -11514,7 +11637,7 @@
         <v>2.0</v>
       </c>
       <c r="H46" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I46" t="n">
         <v>2.0</v>
@@ -11523,7 +11646,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L46" t="n">
         <v>1.23</v>
@@ -11535,10 +11658,10 @@
         <v>10.17</v>
       </c>
       <c r="O46" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Q46" t="n">
         <v>32.0</v>
@@ -11586,16 +11709,16 @@
         <v>27.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AG46" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH46" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI46" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ46" t="n">
         <v>6.0</v>
@@ -11604,10 +11727,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="AM46" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AN46" t="n">
         <v>4.0</v>
@@ -11732,16 +11855,16 @@
         <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -11750,7 +11873,7 @@
         <v>2.0</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -11759,7 +11882,7 @@
         <v>1.0</v>
       </c>
       <c r="K47" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L47" t="n">
         <v>2.36</v>
@@ -11771,10 +11894,10 @@
         <v>3.06</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Q47" t="n">
         <v>8.0</v>
@@ -11822,16 +11945,16 @@
         <v>28.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AG47" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH47" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI47" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ47" t="n">
         <v>4.0</v>
@@ -11840,10 +11963,10 @@
         <v>1.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="AM47" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="AN47" t="n">
         <v>5.0</v>
@@ -11968,16 +12091,16 @@
         <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F48" t="n">
         <v>4.0</v>
@@ -11986,7 +12109,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
@@ -11995,7 +12118,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L48" t="n">
         <v>1.8</v>
@@ -12007,10 +12130,10 @@
         <v>4.35</v>
       </c>
       <c r="O48" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Q48" t="n">
         <v>12.0</v>
@@ -12058,16 +12181,16 @@
         <v>25.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="AG48" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH48" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI48" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AJ48" t="n">
         <v>5.0</v>
@@ -12076,10 +12199,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AM48" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="AN48" t="n">
         <v>4.0</v>
@@ -12204,16 +12327,16 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -12222,7 +12345,7 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -12231,7 +12354,7 @@
         <v>1.0</v>
       </c>
       <c r="K49" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L49" t="n">
         <v>2.11</v>
@@ -12243,10 +12366,10 @@
         <v>3.48</v>
       </c>
       <c r="O49" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P49" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Q49" t="n">
         <v>10.0</v>
@@ -12294,16 +12417,16 @@
         <v>23.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AG49" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH49" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI49" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ49" t="n">
         <v>2.0</v>
@@ -12312,10 +12435,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AM49" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="AN49" t="n">
         <v>1.0</v>
@@ -12440,16 +12563,16 @@
         <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -12458,7 +12581,7 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
@@ -12467,7 +12590,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L50" t="n">
         <v>2.62</v>
@@ -12479,10 +12602,10 @@
         <v>2.84</v>
       </c>
       <c r="O50" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="Q50" t="n">
         <v>18.0</v>
@@ -12530,16 +12653,16 @@
         <v>20.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="AG50" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AH50" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AI50" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ50" t="n">
         <v>1.0</v>
@@ -12548,10 +12671,10 @@
         <v>2.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="AM50" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="AN50" t="n">
         <v>3.0</v>
@@ -12676,16 +12799,16 @@
         <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45585.0</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
@@ -12694,7 +12817,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -12703,7 +12826,7 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L51" t="n">
         <v>6.17</v>
@@ -12715,10 +12838,10 @@
         <v>1.49</v>
       </c>
       <c r="O51" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="Q51" t="n">
         <v>10.0</v>
@@ -12766,16 +12889,16 @@
         <v>25.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="AG51" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AH51" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AI51" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="AJ51" t="n">
         <v>4.0</v>
@@ -12784,10 +12907,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="AM51" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="AN51" t="n">
         <v>1.0</v>
@@ -12905,6 +13028,3782 @@
       </c>
       <c r="BZ51" t="n">
         <v>56.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>157</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O52" t="s">
+        <v>166</v>
+      </c>
+      <c r="P52" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>158</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O53" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>156</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O54" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45592.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>156</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O55" t="s">
+        <v>159</v>
+      </c>
+      <c r="P55" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1064.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45592.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>158</v>
+      </c>
+      <c r="L56" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>162</v>
+      </c>
+      <c r="P56" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>2223.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>2145.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45592.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M57" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="O57" t="s">
+        <v>165</v>
+      </c>
+      <c r="P57" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45595.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="N58" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="O58" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45595.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>156</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O59" t="s">
+        <v>165</v>
+      </c>
+      <c r="P59" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>2940.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>122.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45595.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>158</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O60" t="s">
+        <v>166</v>
+      </c>
+      <c r="P60" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45595.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>156</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O61" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45595.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>156</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="O62" t="s">
+        <v>165</v>
+      </c>
+      <c r="P62" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2068.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45595.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>157</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O63" t="s">
+        <v>166</v>
+      </c>
+      <c r="P63" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O64" t="s">
+        <v>162</v>
+      </c>
+      <c r="P64" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2160.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>156</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O65" t="s">
+        <v>159</v>
+      </c>
+      <c r="P65" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45599.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>158</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O66" t="s">
+        <v>167</v>
+      </c>
+      <c r="P66" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2040.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45599.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>157</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O67" t="s">
+        <v>166</v>
+      </c>
+      <c r="P67" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>675.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1770.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>110.0</v>
       </c>
     </row>
   </sheetData>
